--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W15_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W15_H200_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.55</v>
+        <v>0.5573770491803278</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9065934065934066</v>
+        <v>0.7472527472527473</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08163265306122448</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5379939209726444</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6846473029045643</v>
+        <v>0.6384976525821596</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5227963525835866</v>
+        <v>0.4832826747720365</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07731857377487307</v>
+        <v>0.06641879121937318</v>
       </c>
       <c r="J2" t="n">
-        <v>1032.409659282426</v>
+        <v>903.2342320871693</v>
       </c>
       <c r="K2" t="n">
-        <v>1644529.252290709</v>
+        <v>1278429.099322506</v>
       </c>
       <c r="L2" t="n">
-        <v>1282.392004143315</v>
+        <v>1130.67639018532</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6907924938307402</v>
+        <v>0.7596273383005493</v>
       </c>
     </row>
   </sheetData>
